--- a/2023_11.xlsx
+++ b/2023_11.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Month</t>
   </si>
@@ -31,16 +31,22 @@
     <t>Check In Status</t>
   </si>
   <si>
+    <t>Check In Time</t>
+  </si>
+  <si>
     <t>Check Out</t>
   </si>
   <si>
     <t>Check Out Status</t>
   </si>
   <si>
+    <t>Check Out Time</t>
+  </si>
+  <si>
     <t>Total Salary</t>
   </si>
   <si>
-    <t>2023-11-06</t>
+    <t>11/7/2023</t>
   </si>
   <si>
     <t>ThaiNX</t>
@@ -52,13 +58,28 @@
     <t>on time</t>
   </si>
   <si>
-    <t>N/A</t>
+    <t>8:54</t>
+  </si>
+  <si>
+    <t>19:55</t>
   </si>
   <si>
     <t>Thanh Ha</t>
   </si>
   <si>
-    <t>Duy Long</t>
+    <t>late</t>
+  </si>
+  <si>
+    <t>10:55</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>21:56</t>
   </si>
 </sst>
 </file>
@@ -435,15 +456,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:K3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="9" width="15" customWidth="1"/>
+    <col min="5" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,79 +492,74 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="I2">
-        <v>500000</v>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2">
+        <v>1000000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3">
         <v>500000</v>
       </c>
     </row>

--- a/2023_11.xlsx
+++ b/2023_11.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="31">
   <si>
     <t>Month</t>
   </si>
@@ -46,7 +46,7 @@
     <t>Total Salary</t>
   </si>
   <si>
-    <t>11/7/2023</t>
+    <t>11/9/2023</t>
   </si>
   <si>
     <t>ThaiNX</t>
@@ -58,28 +58,52 @@
     <t>on time</t>
   </si>
   <si>
-    <t>8:54</t>
-  </si>
-  <si>
-    <t>19:55</t>
+    <t>8:48</t>
+  </si>
+  <si>
+    <t>20:49</t>
+  </si>
+  <si>
+    <t>11/10/2023</t>
+  </si>
+  <si>
+    <t>8:53</t>
+  </si>
+  <si>
+    <t>19:24</t>
+  </si>
+  <si>
+    <t>11/11/2023</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>12:02</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <t>Thanh Ha</t>
   </si>
   <si>
+    <t>Duy Long</t>
+  </si>
+  <si>
+    <t>11/12/2023</t>
+  </si>
+  <si>
     <t>late</t>
   </si>
   <si>
-    <t>10:55</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>21:56</t>
+    <t>10:42</t>
+  </si>
+  <si>
+    <t>20:43</t>
   </si>
 </sst>
 </file>
@@ -456,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K9"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="3" width="15" customWidth="1"/>
@@ -535,32 +559,221 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3">
-        <v>500000</v>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9">
+        <v>1000000</v>
       </c>
     </row>
   </sheetData>

--- a/2023_11.xlsx
+++ b/2023_11.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="34">
   <si>
     <t>Month</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Check Out Time</t>
   </si>
   <si>
-    <t>Total Salary</t>
-  </si>
-  <si>
     <t>11/9/2023</t>
   </si>
   <si>
@@ -73,27 +70,27 @@
     <t>19:24</t>
   </si>
   <si>
+    <t>Thanh Ha</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>Duy Long</t>
+  </si>
+  <si>
     <t>11/11/2023</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
     <t>12:02</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Thanh Ha</t>
-  </si>
-  <si>
-    <t>Duy Long</t>
-  </si>
-  <si>
     <t>11/12/2023</t>
   </si>
   <si>
@@ -104,6 +101,18 @@
   </si>
   <si>
     <t>20:43</t>
+  </si>
+  <si>
+    <t>11/13/2023</t>
+  </si>
+  <si>
+    <t>9:23</t>
+  </si>
+  <si>
+    <t>20:25</t>
+  </si>
+  <si>
+    <t>21:24</t>
   </si>
 </sst>
 </file>
@@ -480,15 +489,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:J14"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="11" width="15" customWidth="1"/>
+    <col min="5" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -519,157 +528,139 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
-      </c>
-      <c r="K2">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
       <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="K3">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4">
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
       <c r="H6" t="s">
         <v>21</v>
       </c>
@@ -677,24 +668,15 @@
         <v>22</v>
       </c>
       <c r="J6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
@@ -703,7 +685,7 @@
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
         <v>21</v>
@@ -712,68 +694,201 @@
         <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
         <v>13</v>
       </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="J11" t="s">
         <v>29</v>
       </c>
-      <c r="H9" t="s">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9">
-        <v>1000000</v>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/2023_11.xlsx
+++ b/2023_11.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="38">
   <si>
     <t>Month</t>
   </si>
@@ -113,6 +113,18 @@
   </si>
   <si>
     <t>21:24</t>
+  </si>
+  <si>
+    <t>11/14/2023</t>
+  </si>
+  <si>
+    <t>10:32</t>
+  </si>
+  <si>
+    <t>20:38</t>
+  </si>
+  <si>
+    <t>20:32</t>
   </si>
 </sst>
 </file>
@@ -489,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J17"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="3" width="15" customWidth="1"/>
@@ -891,6 +903,90 @@
         <v>33</v>
       </c>
     </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/2023_11.xlsx
+++ b/2023_11.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="40">
   <si>
     <t>Month</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>20:32</t>
+  </si>
+  <si>
+    <t>11/15/2023</t>
+  </si>
+  <si>
+    <t>18:20</t>
   </si>
 </sst>
 </file>
@@ -501,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="3" width="15" customWidth="1"/>
@@ -987,6 +993,38 @@
         <v>37</v>
       </c>
     </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/2023_11.xlsx
+++ b/2023_11.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="46">
   <si>
     <t>Month</t>
   </si>
@@ -131,6 +131,24 @@
   </si>
   <si>
     <t>18:20</t>
+  </si>
+  <si>
+    <t>8:47</t>
+  </si>
+  <si>
+    <t>20:53</t>
+  </si>
+  <si>
+    <t>20:54</t>
+  </si>
+  <si>
+    <t>11/16/2023</t>
+  </si>
+  <si>
+    <t>9:20</t>
+  </si>
+  <si>
+    <t>9:21</t>
   </si>
 </sst>
 </file>
@@ -507,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J22"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="3" width="15" customWidth="1"/>
@@ -1025,6 +1043,116 @@
         <v>39</v>
       </c>
     </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/2023_11.xlsx
+++ b/2023_11.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>Month</t>
   </si>
@@ -49,55 +49,58 @@
     <t>Check Out Time</t>
   </si>
   <si>
-    <t>11/22/2023</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
+    <t>11/27/2023</t>
+  </si>
+  <si>
+    <t>Monday</t>
   </si>
   <si>
     <t>Nguyen Xuan Thai</t>
   </si>
   <si>
+    <t>CAHANHCHINH</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
     <t>on time</t>
   </si>
   <si>
-    <t>07:06:53</t>
-  </si>
-  <si>
-    <t>17:08:41</t>
+    <t>07:16:17</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>19:18:21</t>
   </si>
   <si>
     <t>Kieu Tuan Phuong</t>
   </si>
   <si>
-    <t>07:07:32</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>20:10:22</t>
-  </si>
-  <si>
-    <t>11/23/2023</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>07:26:49</t>
+    <t>07:16:25</t>
+  </si>
+  <si>
+    <t>18:17:30</t>
+  </si>
+  <si>
+    <t>11/28/2023</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>07:03:10</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>07:30:32</t>
+    <t>07:06:05</t>
   </si>
 </sst>
 </file>
@@ -536,23 +539,26 @@
       <c r="E2" t="s">
         <v>14</v>
       </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -563,25 +569,28 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -589,39 +598,42 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
-      </c>
       <c r="K4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -629,23 +641,26 @@
       <c r="E5" t="s">
         <v>14</v>
       </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
         <v>28</v>
       </c>
-      <c r="J5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" t="s">
-        <v>27</v>
-      </c>
       <c r="L5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/2023_11.xlsx
+++ b/2023_11.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="39">
   <si>
     <t>Month</t>
   </si>
@@ -97,10 +97,37 @@
     <t>07:03:10</t>
   </si>
   <si>
+    <t>18:48:21</t>
+  </si>
+  <si>
+    <t>07:06:05</t>
+  </si>
+  <si>
+    <t>18:48:05</t>
+  </si>
+  <si>
+    <t>11/29/2023</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>07:17:35</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>07:06:05</t>
+    <t>07:17:51</t>
+  </si>
+  <si>
+    <t>11/30/2023</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>08:09:18</t>
   </si>
 </sst>
 </file>
@@ -477,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L8"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="4" width="15" customWidth="1"/>
@@ -625,7 +652,7 @@
         <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L4" t="s">
         <v>28</v>
@@ -657,10 +684,118 @@
         <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L5" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
